--- a/Comparision.xlsx
+++ b/Comparision.xlsx
@@ -2,20 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\OneDrive\Documentos\Titulacion\practicas_sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diein\OneDrive\Documentos\Titulacion\practicas_sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparision" sheetId="1" r:id="rId1"/>
+    <sheet name="BubbleSort" sheetId="2" r:id="rId2"/>
+    <sheet name="OddEvenSort" sheetId="3" r:id="rId3"/>
+    <sheet name="RankSort" sheetId="4" r:id="rId4"/>
+    <sheet name="CountingSort" sheetId="5" r:id="rId5"/>
+    <sheet name="BitonicSort" sheetId="6" r:id="rId6"/>
+    <sheet name="QuickSort" sheetId="7" r:id="rId7"/>
+    <sheet name="RadixSort" sheetId="8" r:id="rId8"/>
+    <sheet name="MergeSort" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BubbleSort!$A$1:$I$1</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Serial</t>
   </si>
@@ -62,12 +72,15 @@
   <si>
     <t>Cores Java</t>
   </si>
+  <si>
+    <t>Rank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +91,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,7 +202,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -194,6 +215,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,11 +225,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
-    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
+    <cellStyle name="60% - Énfasis5" xfId="2" builtinId="48"/>
+    <cellStyle name="Énfasis2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -221,6 +243,2348 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7578827202453509E-2"/>
+          <c:y val="5.7050805452292443E-2"/>
+          <c:w val="0.94113450321676217"/>
+          <c:h val="0.89190709897322318"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>CountingSort!$A$1:$A$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>4598038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>706427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>914907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>572806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>752416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>559777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>473677</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>505869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>561054</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>517366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>671937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>728144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>523242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>758803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>504080</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>787418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>456303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>542403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>533717</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>474699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>428455</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>477510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480830</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>468568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>467290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>447872</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>457070</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>446340</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>423601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440464</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>432543</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>458092</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>522476</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>428200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>355897</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>357174</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>334180</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>424623</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>372758</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>411337</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>376591</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>377357</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>389621</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>355130</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>331625</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>368671</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>379402</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>335712</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>397031</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>358196</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>403162</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>350276</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>362539</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>441996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>360495</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>364327</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>356918</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>355129</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>351553</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>335968</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>354874</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>338012</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>484152</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>381190</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>350787</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>349765</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>340057</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>338523</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>349254</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>352320</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>323960</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>350787</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>344655</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>342356</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>344144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>573829</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>709494</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>622116</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>543170</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>583026</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>816543</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>928959</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>565397</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>426666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>602188</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>714858</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>600144</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>434076</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>387833</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>500248</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>614707</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>784352</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>420280</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>469589</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>379401</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>376336</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>599377</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>597078</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>366116</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>390388</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>414915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>581749</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>380678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>366116</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>392942</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>825741</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>392942</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>354874</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>366372</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>351042</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>366883</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>349509</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>383234</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>418492</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1538556</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>351553</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>338012</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>344399</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>357940</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>347721</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>352575</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>328049</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>333924</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>332647</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>312975</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>324727</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>360496</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>332391</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>304543</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>313486</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>338523</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>338779</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>328304</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>337757</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>351553</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>362283</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>341844</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>356662</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>339289</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>327026</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>329070</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>314507</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>331114</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>323194</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>330603</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>344655</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>347465</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>307354</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>328303</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>321149</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>316806</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>336479</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>324215</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>326770</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>314252</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>303265</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>335713</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>307353</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>318850</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>321150</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>352320</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>322683</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>309908</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>322427</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>323449</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>310675</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>316807</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>310930</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>312463</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>316040</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>318084</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>307609</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>304033</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>334946</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>307353</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>313485</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>304799</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>332391</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>335712</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>309142</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>313230</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>312718</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>306076</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>347977</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>335202</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>323705</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>329325</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>336735</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>323449</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>342100</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>348742</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>437908</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>480064</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>591712</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>514811</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>631313</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>538826</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>845158</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>584048</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>396008</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>763402</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>374803</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>319361</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>361006</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>437142</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>378379</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>473166</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>599378</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>383234</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>346699</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>348232</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>359218</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>361517</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>371737</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>305820</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>357941</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>331625</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>488240</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>430755</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>455281</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>430499</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>313741</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>411337</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>437653</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>435864</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>424879</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>422834</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>451449</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>422324</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>418236</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>416448</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>435098</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>412104</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>441230</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>421302</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>439186</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>427178</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>410061</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>412360</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>425134</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>403417</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>436375</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>500248</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>495138</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>473932</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>472144</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>415936</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>481342</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>420535</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>484408</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>437909</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>435098</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>449406</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>387322</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>376080</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>376080</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>389876</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>328048</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>337501</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>349765</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>327282</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>341333</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>307609</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>372503</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>324982</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>317317</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>312974</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>354619</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>376080</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>323194</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>364072</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>328048</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>323704</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>323960</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>326515</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>322427</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>315018</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>360495</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>355385</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>357429</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>318084</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>313996</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>336479</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>308119</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>315018</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>309142</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>303776</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>304287</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>311186</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>316295</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>313230</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>321149</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>415426</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>466523</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>425645</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>432799</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>585325</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>572040</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>835960</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1025022</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1013525</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>788184</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>460392</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>720734</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>641023</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>464224</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>561565</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>614196</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>455792</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>506890</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>469078</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>445573</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>448384</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>450938</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>352830</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>343889</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>435609</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>470867</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>451705</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>452983</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>438674</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>447872</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>490283</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>466524</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>468823</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>460136</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>352064</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>454770</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>448895</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>680878</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>368416</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>392687</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>316040</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>324471</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336223</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>338268</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>371481</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>316295</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>361517</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>342866</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>311442</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>325238</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>337757</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>324216</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>312208</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>316040</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>327537</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>309653</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>340822</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>308376</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>309398</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>311952</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>304287</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>406739</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>317318</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>303777</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>337756</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>383489</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>333158</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>498203</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>345932</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>365349</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>476998</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>341589</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>434587</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>418235</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>410315</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>327792</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>385278</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>367138</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>375058</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>306076</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>418746</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>421812</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>404695</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>402140</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>404694</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>437909</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>417213</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>402140</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>430754</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>413637</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>431521</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>477509</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>431521</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>447872</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>428966</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>409805</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>460647</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>477254</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>475465</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>433054</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>697485</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>796360</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>744240</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>763913</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>950420</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>523242</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>942244</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>503569</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>495393</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>433565</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>527074</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>1128495</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>611130</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>493605</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>468823</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>849246</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>649454</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>483641</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>458603</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>424622</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>425901</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>441996</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>458858</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>772599</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>445573</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>360751</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>349509</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>505613</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>338779</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>338779</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>347465</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>369182</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>317829</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>330603</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>363306</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>309142</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>356408</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>315018</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>340567</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>353342</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>298667</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>322427</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>341334</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>315529</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>306843</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>305054</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>305565</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>305565</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>347721</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>350276</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>321405</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>333669</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>394475</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>425134</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>403673</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>307097</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>368416</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>306331</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>437142</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>299945</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>345677</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>399329</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>386811</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>300199</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>300455</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>295090</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>415680</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>306842</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>403162</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>404695</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>427178</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>412104</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>393709</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>403418</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>403162</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>417213</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>399840</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>466779</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>415170</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>399585</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>434076</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>411337</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>420791</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>424368</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>415425</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>401628</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>416192</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>400096</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>415170</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>414404</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>418491</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>450428</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>426156</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>443274</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>483896</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>576895</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>595545</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>833406</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>685988</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>819609</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>940966</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>469078</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>417725</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>347465</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>410827</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>444040</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>409804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="396620200"/>
+        <c:axId val="396621376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="396620200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396621376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="396621376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396620200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>538161</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,14 +2852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:R10"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="9" width="8.7109375" style="3" customWidth="1"/>
@@ -505,37 +2869,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
       <c r="J1"/>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="8" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" s="7">
@@ -619,458 +2983,458 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <f>$J3/K3-1</f>
+        <f t="shared" ref="B3:I10" si="0">$J3/K3-1</f>
         <v>-0.32610047952918186</v>
       </c>
       <c r="C3" s="3">
-        <f>$J3/L3-1</f>
+        <f t="shared" si="0"/>
         <v>-1.06418540564992E-2</v>
       </c>
       <c r="D3" s="3" t="e">
-        <f>$J3/M3-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="3" t="e">
-        <f>$J3/N3-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="3" t="e">
-        <f>$J3/O3-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="3" t="e">
-        <f>$J3/P3-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="3" t="e">
-        <f>$J3/Q3-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="3" t="e">
-        <f>$J3/R3-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>19311125061</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>28655792851</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <v>19518841726</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f>$J4/K4-1</f>
+        <f t="shared" si="0"/>
         <v>-0.72246067778676171</v>
       </c>
       <c r="C4" s="3">
-        <f>$J4/L4-1</f>
+        <f t="shared" si="0"/>
         <v>1.0892507215</v>
       </c>
       <c r="D4" s="3">
-        <f>$J4/M4-1</f>
+        <f t="shared" si="0"/>
         <v>7.3570028860000001</v>
       </c>
       <c r="E4" s="3">
-        <f>$J4/N4-1</f>
+        <f t="shared" si="0"/>
         <v>-0.90714441237777776</v>
       </c>
       <c r="F4" s="3" t="e">
-        <f>$J4/O4-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="3" t="e">
-        <f>$J4/P4-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="3" t="e">
-        <f>$J4/Q4-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I4" s="3" t="e">
-        <f>$J4/R4-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>8357002886</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <v>30111058928</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <v>4000000000</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="8">
         <v>1000000000</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="8">
         <v>90000000000</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <f>$J5/K5-1</f>
+        <f t="shared" si="0"/>
         <v>-9.2498713942458788E-2</v>
       </c>
       <c r="C5" s="3" t="e">
-        <f>$J5/L5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D5" s="3" t="e">
-        <f>$J5/M5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E5" s="3" t="e">
-        <f>$J5/N5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" s="3" t="e">
-        <f>$J5/O5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" s="3" t="e">
-        <f>$J5/P5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" s="3" t="e">
-        <f>$J5/Q5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I5" s="3" t="e">
-        <f>$J5/R5-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>27075403723</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>29835113337</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f>$J6/K6-1</f>
+        <f t="shared" si="0"/>
         <v>-0.47403241400841611</v>
       </c>
       <c r="C6" s="3">
-        <f>$J6/L6-1</f>
+        <f t="shared" si="0"/>
         <v>-3.1887427247648592E-2</v>
       </c>
       <c r="D6" s="3" t="e">
-        <f>$J6/M6-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="3" t="e">
-        <f>$J6/N6-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F6" s="3" t="e">
-        <f>$J6/O6-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G6" s="3" t="e">
-        <f>$J6/P6-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H6" s="3" t="e">
-        <f>$J6/Q6-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I6" s="3" t="e">
-        <f>$J6/R6-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>1182656</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <v>2248534</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <v>1221610</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="e">
-        <f>$J7/K7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C7" s="3" t="e">
-        <f>$J7/L7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="3" t="e">
-        <f>$J7/M7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" s="3" t="e">
-        <f>$J7/N7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="3" t="e">
-        <f>$J7/O7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="3" t="e">
-        <f>$J7/P7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="3" t="e">
-        <f>$J7/Q7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="3" t="e">
-        <f>$J7/R7-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="e">
-        <f>$J8/K8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="3" t="e">
-        <f>$J8/L8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="3" t="e">
-        <f>$J8/M8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="3" t="e">
-        <f>$J8/N8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F8" s="3" t="e">
-        <f>$J8/O8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="3" t="e">
-        <f>$J8/P8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="3" t="e">
-        <f>$J8/Q8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="3" t="e">
-        <f>$J8/R8-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="e">
-        <f>$J9/K9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C9" s="3" t="e">
-        <f>$J9/L9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D9" s="3" t="e">
-        <f>$J9/M9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="3" t="e">
-        <f>$J9/N9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="3" t="e">
-        <f>$J9/O9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="3" t="e">
-        <f>$J9/P9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H9" s="3" t="e">
-        <f>$J9/Q9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I9" s="3" t="e">
-        <f>$J9/R9-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="e">
-        <f>$J10/K10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C10" s="3" t="e">
-        <f>$J10/L10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D10" s="3" t="e">
-        <f>$J10/M10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="3" t="e">
-        <f>$J10/N10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="3" t="e">
-        <f>$J10/O10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G10" s="3" t="e">
-        <f>$J10/P10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="3" t="e">
-        <f>$J10/Q10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I10" s="3" t="e">
-        <f>$J10/R10-1</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1091,6 +3455,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:I10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="&quot;&lt;100&quot;"/>
+        <cfvo type="formula" val="&quot;&gt;100&quot;"/>
+        <color rgb="FFFF0000"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1101,16 +3473,2620 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="formula" val="&quot;&lt;100&quot;"/>
-        <cfvo type="formula" val="&quot;&gt;100&quot;"/>
-        <color rgb="FFFF0000"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J500"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4598038</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>706427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>914907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>572806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>752416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>587625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>559777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>473677</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>505869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>561054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>517366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>671937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>728144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>523242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>758803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>504080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>787418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>456303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>542403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>533717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>474699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>428455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>477510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>480830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>468568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>467290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>447872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>457070</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>446340</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>423601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>440464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>432543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>458092</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>522476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>428200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>355897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>357174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>334180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>424623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>372758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>411337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>376591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>377357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>389621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>355130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>331625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>368671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>379402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>335712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>397031</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>358196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>403162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>350276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>362539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>441996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>360495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>364327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>356918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>355129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>351553</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>335968</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>354874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>338012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>484152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>381190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>350787</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>349765</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>340057</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>338523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>349254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>352320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>323960</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>350787</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>344655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>342356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>344144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>573829</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>709494</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>622116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>543170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>583026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>816543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>928959</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>565397</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>426666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>602188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>714858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>600144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>434076</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>387833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>500248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>614707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>784352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>420280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>469589</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>379401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>376336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>599377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>597078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>366116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>390388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>414915</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>581749</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>380678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>366116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>392942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>825741</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>392942</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>354874</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>366372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>351042</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>366883</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>349509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>383234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>418492</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1538556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>351553</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>338012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>344399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>357940</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>347721</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>352575</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>328049</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>333924</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>332647</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>312975</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>324727</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>360496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>332391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>304543</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>313486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>338523</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>338779</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>328304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>337757</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>351553</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>362283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>341844</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>356662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>339289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>327026</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>329070</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>314507</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>331114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>323194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>330603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>344655</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>347465</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>307354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>328303</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>321149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>316806</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>336479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>324215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>326770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>314252</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>303265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>335713</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>307353</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>318850</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>321150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>352320</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>322683</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>309908</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>322427</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>323449</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>310675</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>316807</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>310930</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>312463</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>316040</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>318084</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>307609</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>304033</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>334946</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>307353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>313485</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>304799</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>332391</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>335712</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>309142</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>313230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>312718</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>306076</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>347977</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>335202</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>323705</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>329325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>336735</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>323449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>342100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>348742</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>437908</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>480064</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>591712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>514811</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>631313</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>538826</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>845158</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>584048</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>396008</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>763402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>374803</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>319361</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>361006</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>437142</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>378379</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>473166</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>599378</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>383234</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>346699</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>348232</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>359218</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>361517</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>371737</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>305820</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>357941</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>331625</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>488240</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>430755</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>455281</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>430499</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>313741</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>411337</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>437653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>435864</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>424879</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>422834</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>451449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>422324</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>418236</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>416448</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>435098</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>412104</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>441230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>421302</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>439186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>427178</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>410061</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>412360</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>425134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>403417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>436375</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>500248</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>495138</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>473932</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>472144</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>415936</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>481342</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>420535</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>484408</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>437909</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>435098</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>449406</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>387322</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>376080</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>376080</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>389876</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>328048</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>337501</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>349765</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>327282</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>341333</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>307609</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>372503</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>324982</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>317317</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>312974</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>354619</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>376080</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>323194</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>364072</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>328048</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>323704</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>323960</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>326515</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>322427</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>315018</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>360495</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>355385</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>357429</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>318084</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>313996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>336479</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>308119</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>315018</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>309142</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>303776</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>304287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>311186</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>316295</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>313230</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>321149</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>415426</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>466523</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>425645</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>432799</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>585325</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>572040</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>835960</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1025022</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1013525</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>788184</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>460392</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>720734</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>641023</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>464224</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>561565</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>614196</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>455792</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>506890</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>469078</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>445573</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>448384</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>450938</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>352830</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>343889</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>435609</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>470867</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>451705</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>452983</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>438674</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>447872</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>490283</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>466524</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>468823</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>460136</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>352064</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>454770</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>448895</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>680878</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>368416</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>392687</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>316040</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>324471</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>336223</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>338268</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>371481</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>316295</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>361517</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>342866</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>311442</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>325238</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>337757</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>324216</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>312208</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>316040</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>327537</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>309653</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>340822</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>308376</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>309398</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>311952</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>304287</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>406739</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>317318</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>303777</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>337756</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>383489</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>333158</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>498203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>345932</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>365349</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>476998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>341589</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>434587</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>418235</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>410315</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>327792</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>385278</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>367138</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>375058</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>306076</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>418746</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>421812</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>404695</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>402140</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>404694</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>437909</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>417213</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>402140</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>430754</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>413637</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>431521</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>477509</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>431521</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>447872</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>428966</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>409805</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>460647</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>477254</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>475465</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>433054</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>697485</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>796360</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>744240</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>763913</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>950420</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>523242</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>942244</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>503569</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>495393</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>433565</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>527074</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1128495</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>611130</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>493605</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>468823</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>849246</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>649454</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>483641</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>458603</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>424622</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>425901</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>441996</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>458858</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>772599</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>445573</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>360751</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>349509</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>505613</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>338779</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>338779</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>347465</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>369182</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>317829</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>330603</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>363306</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>309142</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>356408</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>315018</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>340567</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>353342</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>298667</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>322427</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>341334</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>315529</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>306843</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>305054</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>305565</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>305565</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>347721</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>350276</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>321405</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>333669</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>394475</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>425134</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>403673</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>307097</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>368416</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>306331</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>437142</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>299945</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>345677</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>399329</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>386811</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>300199</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>300455</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>295090</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>415680</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>306842</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>403162</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>404695</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>427178</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>412104</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>393709</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>403418</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>403162</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>417213</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>399840</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>466779</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>415170</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>399585</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>434076</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>411337</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>420791</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>424368</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>415425</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>401628</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>416192</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>400096</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>415170</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>414404</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>418491</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>450428</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>426156</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>443274</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>483896</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>576895</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>595545</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>833406</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>685988</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>819609</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>940966</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>469078</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>417725</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>347465</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>410827</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>444040</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>409804</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>